--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -465,19 +465,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>231888.04</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>243327.85</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>243327.85</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4349.261809250211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>439350.069</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>463425.5670000001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>463425.5670000001</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7767.90797195889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>724088.0469999997</v>
+        <v>126374.2</v>
       </c>
       <c r="C4" t="n">
-        <v>743463.8949999996</v>
+        <v>127097.72</v>
       </c>
       <c r="D4" t="n">
-        <v>762265.9049999997</v>
+        <v>127097.72</v>
       </c>
       <c r="E4" t="n">
-        <v>-18802.01</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15280.16817132323</v>
+        <v>2557.350242358083</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>773249.6270000011</v>
+        <v>11864.917</v>
       </c>
       <c r="C5" t="n">
-        <v>791884.2299999999</v>
+        <v>12821.967</v>
       </c>
       <c r="D5" t="n">
-        <v>921461.258</v>
+        <v>13726.168</v>
       </c>
       <c r="E5" t="n">
-        <v>-129577.028</v>
+        <v>-904.2009999999998</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>117906.42</v>
+        <v>145315.424</v>
       </c>
       <c r="C6" t="n">
-        <v>120794.725</v>
+        <v>160644.8300000001</v>
       </c>
       <c r="D6" t="n">
-        <v>124295.925</v>
+        <v>170551.1550000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-3501.200000000001</v>
+        <v>-9906.324999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2286482.203000001</v>
+        <v>283554.541</v>
       </c>
       <c r="C12" t="n">
-        <v>2362896.267</v>
+        <v>300564.5170000001</v>
       </c>
       <c r="D12" t="n">
-        <v>2514776.505</v>
+        <v>311375.0430000001</v>
       </c>
       <c r="E12" t="n">
-        <v>-151880.238</v>
+        <v>-10810.526</v>
       </c>
       <c r="F12" t="n">
-        <v>27397.33795253233</v>
+        <v>2557.350242358083</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -545,13 +545,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>145315.424</v>
+        <v>150856.324</v>
       </c>
       <c r="C6" t="n">
-        <v>160644.8300000001</v>
+        <v>166187.5300000001</v>
       </c>
       <c r="D6" t="n">
-        <v>170551.1550000001</v>
+        <v>176093.855</v>
       </c>
       <c r="E6" t="n">
         <v>-9906.324999999999</v>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>283554.541</v>
+        <v>289095.441</v>
       </c>
       <c r="C12" t="n">
-        <v>300564.5170000001</v>
+        <v>306107.2170000001</v>
       </c>
       <c r="D12" t="n">
-        <v>311375.0430000001</v>
+        <v>316917.743</v>
       </c>
       <c r="E12" t="n">
         <v>-10810.526</v>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -525,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>11864.917</v>
+        <v>145181.917</v>
       </c>
       <c r="C5" t="n">
-        <v>12821.967</v>
+        <v>146483.367</v>
       </c>
       <c r="D5" t="n">
-        <v>13726.168</v>
+        <v>149357.818</v>
       </c>
       <c r="E5" t="n">
-        <v>-904.2009999999998</v>
+        <v>-2874.451</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>150856.324</v>
+        <v>458270.5450000002</v>
       </c>
       <c r="C6" t="n">
-        <v>166187.5300000001</v>
+        <v>488488.1719999998</v>
       </c>
       <c r="D6" t="n">
-        <v>176093.855</v>
+        <v>514396.8969999997</v>
       </c>
       <c r="E6" t="n">
-        <v>-9906.324999999999</v>
+        <v>-25908.72500000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>289095.441</v>
+        <v>729826.6620000001</v>
       </c>
       <c r="C12" t="n">
-        <v>306107.2170000001</v>
+        <v>762069.2589999998</v>
       </c>
       <c r="D12" t="n">
-        <v>316917.743</v>
+        <v>790852.4349999998</v>
       </c>
       <c r="E12" t="n">
-        <v>-10810.526</v>
+        <v>-28783.17600000001</v>
       </c>
       <c r="F12" t="n">
         <v>2557.350242358083</v>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2557.350242358083</v>
+        <v>2663.309383064784</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>458270.5450000002</v>
+        <v>465920.5450000002</v>
       </c>
       <c r="C6" t="n">
-        <v>488488.1719999998</v>
+        <v>497592.2719999998</v>
       </c>
       <c r="D6" t="n">
-        <v>514396.8969999997</v>
+        <v>523500.9969999997</v>
       </c>
       <c r="E6" t="n">
-        <v>-25908.72500000001</v>
+        <v>-25908.725</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>729826.6620000001</v>
+        <v>737476.6620000001</v>
       </c>
       <c r="C12" t="n">
-        <v>762069.2589999998</v>
+        <v>771173.3589999998</v>
       </c>
       <c r="D12" t="n">
-        <v>790852.4349999998</v>
+        <v>799956.5349999997</v>
       </c>
       <c r="E12" t="n">
-        <v>-28783.17600000001</v>
+        <v>-28783.176</v>
       </c>
       <c r="F12" t="n">
-        <v>2557.350242358083</v>
+        <v>2663.309383064784</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -465,19 +465,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>647182.147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>677814.7390000002</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>677814.7390000002</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12181.00137506979</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>724572.2609999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>767679.5080000003</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>767703.2260000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12902.82166134947</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>126374.2</v>
+        <v>1417009.893999999</v>
       </c>
       <c r="C4" t="n">
-        <v>127097.72</v>
+        <v>1451896.686</v>
       </c>
       <c r="D4" t="n">
-        <v>127097.72</v>
+        <v>1451897.13</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="n">
-        <v>2663.309383064784</v>
+        <v>29863.18209401788</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>145181.917</v>
+        <v>1403415.541</v>
       </c>
       <c r="C5" t="n">
-        <v>146483.367</v>
+        <v>1437579.489000002</v>
       </c>
       <c r="D5" t="n">
-        <v>149357.818</v>
+        <v>1444659.555000003</v>
       </c>
       <c r="E5" t="n">
-        <v>-2874.451</v>
+        <v>-7089</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>465920.5450000002</v>
+        <v>583308.3390000004</v>
       </c>
       <c r="C6" t="n">
-        <v>497592.2719999998</v>
+        <v>615375.8119999993</v>
       </c>
       <c r="D6" t="n">
-        <v>523500.9969999997</v>
+        <v>645935.7369999994</v>
       </c>
       <c r="E6" t="n">
-        <v>-25908.725</v>
+        <v>-30564</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737476.6620000001</v>
+        <v>4775488.181999999</v>
       </c>
       <c r="C12" t="n">
-        <v>771173.3589999998</v>
+        <v>4950346.234000001</v>
       </c>
       <c r="D12" t="n">
-        <v>799956.5349999997</v>
+        <v>4988010.387000002</v>
       </c>
       <c r="E12" t="n">
-        <v>-28783.176</v>
+        <v>-37683</v>
       </c>
       <c r="F12" t="n">
-        <v>2663.309383064784</v>
+        <v>54947.00513043713</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CA HT periode</t>
+          <t>factures HT année</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CA TTC période</t>
+          <t>factures TTC année</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total réglements période</t>
+          <t>factures réglées période</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>total RAP</t>
+          <t>pourcentage règlement</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>comms période à payer</t>
+          <t>commissions année</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>commission période</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>commission RAP</t>
         </is>
       </c>
     </row>
@@ -465,19 +475,25 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>647182.147</v>
+        <v>650983.6470000001</v>
       </c>
       <c r="C2" t="n">
-        <v>677814.7390000002</v>
+        <v>682300.2390000002</v>
       </c>
       <c r="D2" t="n">
         <v>677814.7390000002</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>99.34259146580777</v>
       </c>
       <c r="F2" t="n">
-        <v>12181.00137506979</v>
+        <v>12252.551675</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12172.00235463224</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80.54932036776336</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +501,25 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>724572.2609999999</v>
+        <v>792708.1</v>
       </c>
       <c r="C3" t="n">
+        <v>836476.0080000001</v>
+      </c>
+      <c r="D3" t="n">
         <v>767679.5080000003</v>
       </c>
-      <c r="D3" t="n">
-        <v>767703.2260000001</v>
-      </c>
       <c r="E3" t="n">
-        <v>-26</v>
+        <v>91.77543655262855</v>
       </c>
       <c r="F3" t="n">
-        <v>12902.82166134947</v>
+        <v>14116.15072</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12955.15894770702</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1160.99177229298</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +527,25 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>1417009.893999999</v>
+        <v>1472362.405999999</v>
       </c>
       <c r="C4" t="n">
+        <v>1507512.625</v>
+      </c>
+      <c r="D4" t="n">
         <v>1451896.686</v>
       </c>
-      <c r="D4" t="n">
-        <v>1451897.13</v>
-      </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>96.31074804431573</v>
       </c>
       <c r="F4" t="n">
-        <v>29863.18209401788</v>
+        <v>31029.72450999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29884.95979167137</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1144.764718328617</v>
       </c>
     </row>
     <row r="5">
@@ -525,18 +553,24 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>1403415.541</v>
+        <v>1511825.776</v>
       </c>
       <c r="C5" t="n">
+        <v>1547816.279000002</v>
+      </c>
+      <c r="D5" t="n">
         <v>1437579.489000002</v>
       </c>
-      <c r="D5" t="n">
-        <v>1444659.555000003</v>
-      </c>
       <c r="E5" t="n">
-        <v>-7089</v>
+        <v>92.87791506681783</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,18 +579,24 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>583308.3390000004</v>
+        <v>726577.7140000005</v>
       </c>
       <c r="C6" t="n">
-        <v>615375.8119999993</v>
+        <v>764534.5079999993</v>
       </c>
       <c r="D6" t="n">
-        <v>645935.7369999994</v>
+        <v>662609.2369999993</v>
       </c>
       <c r="E6" t="n">
-        <v>-30564</v>
+        <v>86.66832302094072</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -565,18 +605,24 @@
         <v>2021</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>266543.843</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>290113.524</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>149618.68</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>51.57245961411989</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,6 +645,12 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -619,6 +671,12 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -639,6 +697,12 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -657,6 +721,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -667,19 +737,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4775488.181999999</v>
+        <v>5421001.486</v>
       </c>
       <c r="C12" t="n">
-        <v>4950346.234000001</v>
+        <v>5628753.183000002</v>
       </c>
       <c r="D12" t="n">
-        <v>4988010.387000002</v>
+        <v>5147198.339000002</v>
       </c>
       <c r="E12" t="n">
-        <v>-37683</v>
+        <v>518.5474737646305</v>
       </c>
       <c r="F12" t="n">
-        <v>54947.00513043713</v>
+        <v>57398.42690499999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55012.12109401062</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2386.305810989361</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>objectif min</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>objectif excellence</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>% VD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>% VR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% EX</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>factures HT année</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>factures TTC année</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>factures réglées période</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pourcentage règlement</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>commissions année</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>commission période</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>commission RAP</t>
         </is>
@@ -475,25 +500,40 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>650983.6470000001</v>
+        <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>682300.2390000002</v>
+        <v>600000</v>
       </c>
       <c r="D2" t="n">
-        <v>677814.7390000002</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.34259146580777</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12252.551675</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12172.00235463224</v>
+        <v>650983.6</v>
       </c>
       <c r="H2" t="n">
-        <v>80.54932036776336</v>
+        <v>682300.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>677814.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12252.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12172</v>
+      </c>
+      <c r="M2" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +541,40 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
+        <v>260000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>660000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>792708.1</v>
       </c>
-      <c r="C3" t="n">
-        <v>836476.0080000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>767679.5080000003</v>
-      </c>
-      <c r="E3" t="n">
-        <v>91.77543655262855</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14116.15072</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12955.15894770702</v>
-      </c>
       <c r="H3" t="n">
-        <v>1160.99177229298</v>
+        <v>836476</v>
+      </c>
+      <c r="I3" t="n">
+        <v>767679.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14116.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12955.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1161</v>
       </c>
     </row>
     <row r="4">
@@ -527,50 +582,70 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>1472362.405999999</v>
+        <v>260000</v>
       </c>
       <c r="C4" t="n">
-        <v>1507512.625</v>
+        <v>730000</v>
       </c>
       <c r="D4" t="n">
-        <v>1451896.686</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>96.31074804431573</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31029.72450999999</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>29884.95979167137</v>
+        <v>1472362.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1144.764718328617</v>
+        <v>1507512.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1451896.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31029.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29885</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1144.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" t="n">
-        <v>1511825.776</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1547816.279000002</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1437579.489000002</v>
-      </c>
-      <c r="E5" t="n">
-        <v>92.87791506681783</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1511825.8</v>
       </c>
       <c r="H5" t="n">
+        <v>1547816.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1437579.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -578,25 +653,30 @@
       <c r="A6" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
-        <v>726577.7140000005</v>
-      </c>
-      <c r="C6" t="n">
-        <v>764534.5079999993</v>
-      </c>
-      <c r="D6" t="n">
-        <v>662609.2369999993</v>
-      </c>
-      <c r="E6" t="n">
-        <v>86.66832302094072</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>726577.7</v>
       </c>
       <c r="H6" t="n">
+        <v>764534.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>662609.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -604,25 +684,30 @@
       <c r="A7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B7" t="n">
-        <v>266543.843</v>
-      </c>
-      <c r="C7" t="n">
-        <v>290113.524</v>
-      </c>
-      <c r="D7" t="n">
-        <v>149618.68</v>
-      </c>
-      <c r="E7" t="n">
-        <v>51.57245961411989</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>266543.8</v>
       </c>
       <c r="H7" t="n">
+        <v>290113.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>149618.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -630,25 +715,30 @@
       <c r="A8" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,25 +746,30 @@
       <c r="A9" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,25 +777,30 @@
       <c r="A10" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -708,25 +808,30 @@
       <c r="A11" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -736,26 +841,31 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>5421001.486</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5628753.183000002</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5147198.339000002</v>
-      </c>
-      <c r="E12" t="n">
-        <v>518.5474737646305</v>
-      </c>
-      <c r="F12" t="n">
-        <v>57398.42690499999</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>55012.12109401062</v>
+        <v>5421001.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2386.305810989361</v>
+        <v>5628753.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5147198.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>57398.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>55012.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2386.3</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -4,10 +4,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new_BS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,438 +434,577 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date debut:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date fin:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/01/10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>31/12/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
         <is>
           <t>objectif min</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>objectif excellence</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>% VD</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>% VR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>% EX</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>% excellence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>factures HT année</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>factures TTC année</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>factures réglées période</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>pourcentage règlement</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>% règlement</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>commissions année</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>commission période</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>commission RAP</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>2016</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B5" t="n">
         <v>200000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C5" t="n">
         <v>600000</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>650983.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>682300.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>677814.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12252.6</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>650984</v>
+      </c>
+      <c r="H5" t="n">
+        <v>682300</v>
+      </c>
+      <c r="I5" t="n">
+        <v>677815</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>99.3%</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>12253</v>
+      </c>
+      <c r="L5" t="n">
         <v>12172</v>
       </c>
-      <c r="M2" t="n">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="M5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B6" t="n">
         <v>260000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C6" t="n">
         <v>660000</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>792708.1</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>792708</v>
+      </c>
+      <c r="H6" t="n">
         <v>836476</v>
       </c>
-      <c r="I3" t="n">
-        <v>767679.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14116.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12955.2</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="I6" t="n">
+        <v>767680</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>91.8%</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>14116</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12955</v>
+      </c>
+      <c r="M6" t="n">
         <v>1161</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>2018</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B7" t="n">
         <v>260000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C7" t="n">
         <v>730000</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1472362.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1507512.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1451896.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31029.7</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1472362</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1507513</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1451897</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>96.3%</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>31030</v>
+      </c>
+      <c r="L7" t="n">
         <v>29885</v>
       </c>
-      <c r="M4" t="n">
-        <v>1144.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="M7" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>1511825.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1547816.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1437579.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1511826</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1547816</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1437579</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>92.9%</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2020</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>726577.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>764534.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>662609.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>726578</v>
+      </c>
+      <c r="H9" t="n">
+        <v>764535</v>
+      </c>
+      <c r="I9" t="n">
+        <v>662609</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>86.7%</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2021</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>266543.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>290113.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>149618.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>266544</v>
+      </c>
+      <c r="H10" t="n">
+        <v>290114</v>
+      </c>
+      <c r="I10" t="n">
+        <v>149619</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>51.6%</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2022</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>2023</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>2024</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2025</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>5421001.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5628753.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5147198.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>518.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>57398.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>55012.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2386.3</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5421001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5628753</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5147198</v>
+      </c>
+      <c r="K15" t="n">
+        <v>57398</v>
+      </c>
+      <c r="L15" t="n">
+        <v>55012</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2386</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -670,21 +670,6 @@
       <c r="A8" t="n">
         <v>2019</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G8" t="n">
         <v>1511826</v>
       </c>
@@ -713,21 +698,6 @@
       <c r="A9" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G9" t="n">
         <v>726578</v>
       </c>
@@ -756,21 +726,6 @@
       <c r="A10" t="n">
         <v>2021</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G10" t="n">
         <v>266544</v>
       </c>
@@ -799,21 +754,6 @@
       <c r="A11" t="n">
         <v>2022</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -842,21 +782,6 @@
       <c r="A12" t="n">
         <v>2023</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
@@ -885,21 +810,6 @@
       <c r="A13" t="n">
         <v>2024</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
@@ -928,21 +838,6 @@
       <c r="A14" t="n">
         <v>2025</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -971,21 +866,6 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Total</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>nan%</t>
         </is>
       </c>
       <c r="G15" t="n">

--- a/Commissions_BejaouiS_periode_saisie.xlsx
+++ b/Commissions_BejaouiS_periode_saisie.xlsx
@@ -524,7 +524,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="C5" t="n">
         <v>600000</v>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>12253</v>
+        <v>11253</v>
       </c>
       <c r="L5" t="n">
-        <v>12172</v>
+        <v>11179</v>
       </c>
       <c r="M5" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -573,10 +573,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="C6" t="n">
-        <v>660000</v>
+        <v>650000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>14116</v>
+        <v>13916</v>
       </c>
       <c r="L6" t="n">
-        <v>12955</v>
+        <v>12772</v>
       </c>
       <c r="M6" t="n">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="C7" t="n">
-        <v>730000</v>
+        <v>680000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -657,19 +657,25 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>31030</v>
+        <v>30430</v>
       </c>
       <c r="L7" t="n">
-        <v>29885</v>
+        <v>29307</v>
       </c>
       <c r="M7" t="n">
-        <v>1145</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2019</v>
       </c>
+      <c r="B8" t="n">
+        <v>310000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>710000</v>
+      </c>
       <c r="G8" t="n">
         <v>1511826</v>
       </c>
@@ -685,19 +691,25 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>30933</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>28730</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2020</v>
       </c>
+      <c r="B9" t="n">
+        <v>330000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>750000</v>
+      </c>
       <c r="G9" t="n">
         <v>726578</v>
       </c>
@@ -713,19 +725,25 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6872</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5956</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2021</v>
       </c>
+      <c r="B10" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>800000</v>
+      </c>
       <c r="G10" t="n">
         <v>266544</v>
       </c>
@@ -878,13 +896,13 @@
         <v>5147198</v>
       </c>
       <c r="K15" t="n">
-        <v>57398</v>
+        <v>93404</v>
       </c>
       <c r="L15" t="n">
-        <v>55012</v>
+        <v>87943</v>
       </c>
       <c r="M15" t="n">
-        <v>2386</v>
+        <v>5460</v>
       </c>
     </row>
   </sheetData>
